--- a/Model/BayesLSTM/Univariate/result/Service/SGP.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Service/SGP.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>65.10750579833984</v>
+        <v>64.70606994628906</v>
       </c>
       <c r="C2" t="n">
-        <v>62.41588973999023</v>
+        <v>63.52049255371094</v>
       </c>
       <c r="D2" t="n">
-        <v>67.79912567138672</v>
+        <v>65.89164733886719</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>64.35276794433594</v>
+        <v>64.53592681884766</v>
       </c>
       <c r="C3" t="n">
-        <v>60.606689453125</v>
+        <v>62.79340362548828</v>
       </c>
       <c r="D3" t="n">
-        <v>68.09884643554688</v>
+        <v>66.27845001220703</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>64.52973937988281</v>
+        <v>64.79652404785156</v>
       </c>
       <c r="C4" t="n">
-        <v>62.10268020629883</v>
+        <v>62.41047286987305</v>
       </c>
       <c r="D4" t="n">
-        <v>66.95680236816406</v>
+        <v>67.18257141113281</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>64.25119018554688</v>
+        <v>64.73326110839844</v>
       </c>
       <c r="C5" t="n">
-        <v>61.41495132446289</v>
+        <v>63.00823974609375</v>
       </c>
       <c r="D5" t="n">
-        <v>67.08742523193359</v>
+        <v>66.45828247070312</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>64.20565795898438</v>
+        <v>64.78644561767578</v>
       </c>
       <c r="C6" t="n">
-        <v>60.52774810791016</v>
+        <v>63.30801391601562</v>
       </c>
       <c r="D6" t="n">
-        <v>67.88356781005859</v>
+        <v>66.26487731933594</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>63.99015045166016</v>
+        <v>64.51570892333984</v>
       </c>
       <c r="C7" t="n">
-        <v>60.50618362426758</v>
+        <v>62.83102416992188</v>
       </c>
       <c r="D7" t="n">
-        <v>67.47411346435547</v>
+        <v>66.20039367675781</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>63.7847785949707</v>
+        <v>64.287353515625</v>
       </c>
       <c r="C8" t="n">
-        <v>60.02387237548828</v>
+        <v>62.98448944091797</v>
       </c>
       <c r="D8" t="n">
-        <v>67.54568481445312</v>
+        <v>65.59021759033203</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>63.73677825927734</v>
+        <v>64.48370361328125</v>
       </c>
       <c r="C9" t="n">
-        <v>60.51179504394531</v>
+        <v>63.09090042114258</v>
       </c>
       <c r="D9" t="n">
-        <v>66.96176147460938</v>
+        <v>65.87650299072266</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>63.34049224853516</v>
+        <v>64.82179260253906</v>
       </c>
       <c r="C10" t="n">
-        <v>60.4742546081543</v>
+        <v>63.5418586730957</v>
       </c>
       <c r="D10" t="n">
-        <v>66.20673370361328</v>
+        <v>66.10173034667969</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>64.16135406494141</v>
+        <v>65.00508117675781</v>
       </c>
       <c r="C11" t="n">
-        <v>60.38557434082031</v>
+        <v>63.24309539794922</v>
       </c>
       <c r="D11" t="n">
-        <v>67.9371337890625</v>
+        <v>66.76706695556641</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>63.70432662963867</v>
+        <v>64.60850524902344</v>
       </c>
       <c r="C12" t="n">
-        <v>60.59410858154297</v>
+        <v>62.67080307006836</v>
       </c>
       <c r="D12" t="n">
-        <v>66.81454467773438</v>
+        <v>66.54620361328125</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>63.86933517456055</v>
+        <v>64.75834655761719</v>
       </c>
       <c r="C13" t="n">
-        <v>60.42045593261719</v>
+        <v>62.76010894775391</v>
       </c>
       <c r="D13" t="n">
-        <v>67.31821441650391</v>
+        <v>66.75658416748047</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>63.60171508789062</v>
+        <v>64.57749938964844</v>
       </c>
       <c r="C14" t="n">
-        <v>60.28700637817383</v>
+        <v>62.24323272705078</v>
       </c>
       <c r="D14" t="n">
-        <v>66.91642761230469</v>
+        <v>66.91176605224609</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>63.67559814453125</v>
+        <v>64.62985992431641</v>
       </c>
       <c r="C15" t="n">
-        <v>60.25551223754883</v>
+        <v>62.20980072021484</v>
       </c>
       <c r="D15" t="n">
-        <v>67.09568023681641</v>
+        <v>67.04991912841797</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>63.92130661010742</v>
+        <v>64.88386535644531</v>
       </c>
       <c r="C16" t="n">
-        <v>60.55277252197266</v>
+        <v>62.51192474365234</v>
       </c>
       <c r="D16" t="n">
-        <v>67.28984069824219</v>
+        <v>67.25580596923828</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>63.70182418823242</v>
+        <v>65.02375793457031</v>
       </c>
       <c r="C17" t="n">
-        <v>60.55843353271484</v>
+        <v>62.86124420166016</v>
       </c>
       <c r="D17" t="n">
-        <v>66.84521484375</v>
+        <v>67.18627166748047</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>63.90850830078125</v>
+        <v>64.82276916503906</v>
       </c>
       <c r="C18" t="n">
-        <v>60.32816314697266</v>
+        <v>62.58945846557617</v>
       </c>
       <c r="D18" t="n">
-        <v>67.48885345458984</v>
+        <v>67.05607604980469</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>63.5539436340332</v>
+        <v>64.62425231933594</v>
       </c>
       <c r="C19" t="n">
-        <v>60.18589782714844</v>
+        <v>62.25001525878906</v>
       </c>
       <c r="D19" t="n">
-        <v>66.92198944091797</v>
+        <v>66.99848937988281</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>63.54789352416992</v>
+        <v>64.62917327880859</v>
       </c>
       <c r="C20" t="n">
-        <v>60.0899772644043</v>
+        <v>62.24857711791992</v>
       </c>
       <c r="D20" t="n">
-        <v>67.00580596923828</v>
+        <v>67.00977325439453</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>63.81834030151367</v>
+        <v>65.12272644042969</v>
       </c>
       <c r="C21" t="n">
-        <v>60.97118377685547</v>
+        <v>62.79952621459961</v>
       </c>
       <c r="D21" t="n">
-        <v>66.66549682617188</v>
+        <v>67.44593048095703</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>63.58230590820312</v>
+        <v>65.23200225830078</v>
       </c>
       <c r="C22" t="n">
-        <v>60.33303451538086</v>
+        <v>62.90115356445312</v>
       </c>
       <c r="D22" t="n">
-        <v>66.83157348632812</v>
+        <v>67.56285095214844</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>64.24224090576172</v>
+        <v>64.87940979003906</v>
       </c>
       <c r="C23" t="n">
-        <v>61.11923217773438</v>
+        <v>62.61647033691406</v>
       </c>
       <c r="D23" t="n">
-        <v>67.36524963378906</v>
+        <v>67.14234924316406</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>63.56227493286133</v>
+        <v>64.74756622314453</v>
       </c>
       <c r="C24" t="n">
-        <v>59.81483459472656</v>
+        <v>62.77150726318359</v>
       </c>
       <c r="D24" t="n">
-        <v>67.30971527099609</v>
+        <v>66.72362518310547</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>63.7608528137207</v>
+        <v>64.96382141113281</v>
       </c>
       <c r="C25" t="n">
-        <v>61.20394134521484</v>
+        <v>62.6103630065918</v>
       </c>
       <c r="D25" t="n">
-        <v>66.31776428222656</v>
+        <v>67.31727600097656</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>64.05368804931641</v>
+        <v>64.9940185546875</v>
       </c>
       <c r="C26" t="n">
-        <v>60.77245330810547</v>
+        <v>62.77323150634766</v>
       </c>
       <c r="D26" t="n">
-        <v>67.33492279052734</v>
+        <v>67.21480560302734</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>63.77405548095703</v>
+        <v>65.05812835693359</v>
       </c>
       <c r="C27" t="n">
-        <v>61.14144897460938</v>
+        <v>63.02014923095703</v>
       </c>
       <c r="D27" t="n">
-        <v>66.40666198730469</v>
+        <v>67.09610748291016</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>63.9920654296875</v>
+        <v>64.98333740234375</v>
       </c>
       <c r="C28" t="n">
-        <v>60.7319450378418</v>
+        <v>63.63404846191406</v>
       </c>
       <c r="D28" t="n">
-        <v>67.25218963623047</v>
+        <v>66.33262634277344</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>64.12680053710938</v>
+        <v>65.28450012207031</v>
       </c>
       <c r="C29" t="n">
-        <v>60.56537246704102</v>
+        <v>63.35597229003906</v>
       </c>
       <c r="D29" t="n">
-        <v>67.68822479248047</v>
+        <v>67.21302795410156</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>64.40403747558594</v>
+        <v>65.01069641113281</v>
       </c>
       <c r="C30" t="n">
-        <v>61.90805816650391</v>
+        <v>63.39184188842773</v>
       </c>
       <c r="D30" t="n">
-        <v>66.90001678466797</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>64.43608856201172</v>
-      </c>
-      <c r="C31" t="n">
-        <v>62.20962905883789</v>
-      </c>
-      <c r="D31" t="n">
-        <v>66.66255187988281</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>64.46466064453125</v>
-      </c>
-      <c r="C32" t="n">
-        <v>61.78400421142578</v>
-      </c>
-      <c r="D32" t="n">
-        <v>67.14531707763672</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>64.58242797851562</v>
-      </c>
-      <c r="C33" t="n">
-        <v>62.24799728393555</v>
-      </c>
-      <c r="D33" t="n">
-        <v>66.91685485839844</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>64.28434753417969</v>
-      </c>
-      <c r="C34" t="n">
-        <v>61.17240142822266</v>
-      </c>
-      <c r="D34" t="n">
-        <v>67.39629364013672</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>64.47894287109375</v>
-      </c>
-      <c r="C35" t="n">
-        <v>61.63922882080078</v>
-      </c>
-      <c r="D35" t="n">
-        <v>67.31865692138672</v>
+        <v>66.62954711914062</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>61.81807594299316</v>
+        <v>64.77587890625</v>
       </c>
       <c r="C2" t="n">
-        <v>60.76075861743379</v>
+        <v>63.04663467407227</v>
       </c>
       <c r="D2" t="n">
-        <v>62.87539326855253</v>
+        <v>66.50511932373047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>61.94872856140137</v>
+        <v>65.16050720214844</v>
       </c>
       <c r="C3" t="n">
-        <v>59.75968723243739</v>
+        <v>63.6082878112793</v>
       </c>
       <c r="D3" t="n">
-        <v>64.13776989036533</v>
+        <v>66.71272277832031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>63.75347709655762</v>
+        <v>65.00235748291016</v>
       </c>
       <c r="C4" t="n">
-        <v>62.38018357199474</v>
+        <v>63.81484985351562</v>
       </c>
       <c r="D4" t="n">
-        <v>65.12677062112049</v>
+        <v>66.18986511230469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>62.74579811096191</v>
+        <v>64.90977478027344</v>
       </c>
       <c r="C5" t="n">
-        <v>60.43067127497464</v>
+        <v>63.31684112548828</v>
       </c>
       <c r="D5" t="n">
-        <v>65.0609249469492</v>
+        <v>66.50270843505859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>65.19978179931641</v>
+        <v>64.73545837402344</v>
       </c>
       <c r="C6" t="n">
-        <v>62.03842124405732</v>
+        <v>62.99311065673828</v>
       </c>
       <c r="D6" t="n">
-        <v>68.36114235457551</v>
+        <v>66.47780609130859</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>61.28755950927734</v>
+        <v>62.6895866394043</v>
       </c>
       <c r="C2" t="n">
-        <v>58.35197830200195</v>
+        <v>60.56752395629883</v>
       </c>
       <c r="D2" t="n">
-        <v>64.22314453125</v>
+        <v>64.81165313720703</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>62.98020172119141</v>
+        <v>63.44843673706055</v>
       </c>
       <c r="C3" t="n">
-        <v>59.91794967651367</v>
+        <v>61.78069305419922</v>
       </c>
       <c r="D3" t="n">
-        <v>66.04244995117188</v>
+        <v>65.11618041992188</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>63.0908088684082</v>
+        <v>63.34912109375</v>
       </c>
       <c r="C4" t="n">
-        <v>58.45609664916992</v>
+        <v>61.66849517822266</v>
       </c>
       <c r="D4" t="n">
-        <v>67.72551727294922</v>
+        <v>65.02974700927734</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>63.1368522644043</v>
+        <v>63.22026443481445</v>
       </c>
       <c r="C5" t="n">
-        <v>59.59415817260742</v>
+        <v>61.46189498901367</v>
       </c>
       <c r="D5" t="n">
-        <v>66.67954254150391</v>
+        <v>64.9786376953125</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>63.48137283325195</v>
+        <v>63.58594512939453</v>
       </c>
       <c r="C6" t="n">
-        <v>60.37216949462891</v>
+        <v>62.03443145751953</v>
       </c>
       <c r="D6" t="n">
-        <v>66.590576171875</v>
+        <v>65.13745880126953</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>63.51370239257812</v>
+        <v>63.05923461914062</v>
       </c>
       <c r="C7" t="n">
-        <v>58.62978363037109</v>
+        <v>60.77962493896484</v>
       </c>
       <c r="D7" t="n">
-        <v>68.39762115478516</v>
+        <v>65.33884429931641</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>63.53548431396484</v>
+        <v>63.35529708862305</v>
       </c>
       <c r="C8" t="n">
-        <v>58.5914192199707</v>
+        <v>61.81292343139648</v>
       </c>
       <c r="D8" t="n">
-        <v>68.47955322265625</v>
+        <v>64.89767456054688</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>63.71036911010742</v>
+        <v>63.0489616394043</v>
       </c>
       <c r="C9" t="n">
-        <v>58.92448043823242</v>
+        <v>60.84647750854492</v>
       </c>
       <c r="D9" t="n">
-        <v>68.49625396728516</v>
+        <v>65.25144958496094</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>63.34074783325195</v>
+        <v>63.83642578125</v>
       </c>
       <c r="C10" t="n">
-        <v>58.55500030517578</v>
+        <v>61.36423492431641</v>
       </c>
       <c r="D10" t="n">
-        <v>68.12649536132812</v>
+        <v>66.30861663818359</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>63.64387130737305</v>
+        <v>63.29286956787109</v>
       </c>
       <c r="C11" t="n">
-        <v>58.99423980712891</v>
+        <v>61.36053466796875</v>
       </c>
       <c r="D11" t="n">
-        <v>68.29350280761719</v>
+        <v>65.22520446777344</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>63.68605804443359</v>
+        <v>63.33573532104492</v>
       </c>
       <c r="C12" t="n">
-        <v>59.8319091796875</v>
+        <v>61.76138687133789</v>
       </c>
       <c r="D12" t="n">
-        <v>67.54020690917969</v>
+        <v>64.91007995605469</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>63.43210601806641</v>
+        <v>63.04044342041016</v>
       </c>
       <c r="C13" t="n">
-        <v>59.18858337402344</v>
+        <v>60.97112655639648</v>
       </c>
       <c r="D13" t="n">
-        <v>67.67562866210938</v>
+        <v>65.10976409912109</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>63.60790252685547</v>
+        <v>62.99483489990234</v>
       </c>
       <c r="C14" t="n">
-        <v>58.40836334228516</v>
+        <v>60.9822998046875</v>
       </c>
       <c r="D14" t="n">
-        <v>68.80744171142578</v>
+        <v>65.00736999511719</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>63.71724700927734</v>
+        <v>63.16329956054688</v>
       </c>
       <c r="C15" t="n">
-        <v>58.8349494934082</v>
+        <v>60.42351150512695</v>
       </c>
       <c r="D15" t="n">
-        <v>68.59954071044922</v>
+        <v>65.90309143066406</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>63.77861785888672</v>
+        <v>63.33712005615234</v>
       </c>
       <c r="C16" t="n">
-        <v>58.66495513916016</v>
+        <v>61.01459121704102</v>
       </c>
       <c r="D16" t="n">
-        <v>68.89228057861328</v>
+        <v>65.65965270996094</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>63.77555465698242</v>
+        <v>63.53389358520508</v>
       </c>
       <c r="C17" t="n">
-        <v>58.9315071105957</v>
+        <v>61.00828170776367</v>
       </c>
       <c r="D17" t="n">
-        <v>68.61960601806641</v>
+        <v>66.05950164794922</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>63.80435943603516</v>
+        <v>63.59378051757812</v>
       </c>
       <c r="C18" t="n">
-        <v>58.80643081665039</v>
+        <v>61.33702087402344</v>
       </c>
       <c r="D18" t="n">
-        <v>68.80228424072266</v>
+        <v>65.85054016113281</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>63.7772216796875</v>
+        <v>63.24445343017578</v>
       </c>
       <c r="C19" t="n">
-        <v>58.58756637573242</v>
+        <v>61.27616500854492</v>
       </c>
       <c r="D19" t="n">
-        <v>68.96688079833984</v>
+        <v>65.21274566650391</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>63.8179817199707</v>
+        <v>63.19777297973633</v>
       </c>
       <c r="C20" t="n">
-        <v>58.61557769775391</v>
+        <v>61.14263916015625</v>
       </c>
       <c r="D20" t="n">
-        <v>69.0203857421875</v>
+        <v>65.25290679931641</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>63.59243011474609</v>
+        <v>63.1575813293457</v>
       </c>
       <c r="C21" t="n">
-        <v>59.01347732543945</v>
+        <v>61.23400115966797</v>
       </c>
       <c r="D21" t="n">
-        <v>68.17137908935547</v>
+        <v>65.08116149902344</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>62.95051193237305</v>
+        <v>62.76725387573242</v>
       </c>
       <c r="C22" t="n">
-        <v>58.58738327026367</v>
+        <v>60.74960708618164</v>
       </c>
       <c r="D22" t="n">
-        <v>67.31363677978516</v>
+        <v>64.78489685058594</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>63.61386108398438</v>
+        <v>63.04617309570312</v>
       </c>
       <c r="C23" t="n">
-        <v>58.79232788085938</v>
+        <v>61.19014358520508</v>
       </c>
       <c r="D23" t="n">
-        <v>68.43539428710938</v>
+        <v>64.90219879150391</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>63.060546875</v>
+        <v>62.81449127197266</v>
       </c>
       <c r="C24" t="n">
-        <v>58.55448150634766</v>
+        <v>60.7803840637207</v>
       </c>
       <c r="D24" t="n">
-        <v>67.56661224365234</v>
+        <v>64.84860229492188</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>63.20875930786133</v>
+        <v>63.07436370849609</v>
       </c>
       <c r="C25" t="n">
-        <v>59.27925491333008</v>
+        <v>61.44290924072266</v>
       </c>
       <c r="D25" t="n">
-        <v>67.13825988769531</v>
+        <v>64.70581817626953</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>62.83860015869141</v>
+        <v>63.05364990234375</v>
       </c>
       <c r="C26" t="n">
-        <v>58.49142837524414</v>
+        <v>61.46240234375</v>
       </c>
       <c r="D26" t="n">
-        <v>67.18576812744141</v>
+        <v>64.6448974609375</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>63.33361053466797</v>
+        <v>62.93283843994141</v>
       </c>
       <c r="C27" t="n">
-        <v>58.77639389038086</v>
+        <v>60.28898239135742</v>
       </c>
       <c r="D27" t="n">
-        <v>67.89083099365234</v>
+        <v>65.57669830322266</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>62.73533248901367</v>
+        <v>63.03450393676758</v>
       </c>
       <c r="C28" t="n">
-        <v>58.54914474487305</v>
+        <v>60.38928985595703</v>
       </c>
       <c r="D28" t="n">
-        <v>66.92152404785156</v>
+        <v>65.67971801757812</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>62.95767974853516</v>
+        <v>62.83609008789062</v>
       </c>
       <c r="C29" t="n">
-        <v>57.88861846923828</v>
+        <v>60.17446899414062</v>
       </c>
       <c r="D29" t="n">
-        <v>68.02674102783203</v>
+        <v>65.49771118164062</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>64.19216918945312</v>
+        <v>63.14016723632812</v>
       </c>
       <c r="C30" t="n">
-        <v>59.59032821655273</v>
+        <v>60.76125717163086</v>
       </c>
       <c r="D30" t="n">
-        <v>68.79400634765625</v>
+        <v>65.51907348632812</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>64.05058288574219</v>
+        <v>63.300537109375</v>
       </c>
       <c r="C31" t="n">
-        <v>59.97074127197266</v>
+        <v>61.84493637084961</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13042449951172</v>
+        <v>64.75614166259766</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>64.78519439697266</v>
+        <v>63.29914093017578</v>
       </c>
       <c r="C32" t="n">
-        <v>61.24895477294922</v>
+        <v>60.99579238891602</v>
       </c>
       <c r="D32" t="n">
-        <v>68.32143402099609</v>
+        <v>65.60249328613281</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>64.52446746826172</v>
+        <v>63.10186004638672</v>
       </c>
       <c r="C33" t="n">
-        <v>60.7799072265625</v>
+        <v>61.53655242919922</v>
       </c>
       <c r="D33" t="n">
-        <v>68.26902770996094</v>
+        <v>64.66716766357422</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>64.33798980712891</v>
+        <v>62.81162261962891</v>
       </c>
       <c r="C34" t="n">
-        <v>59.64530181884766</v>
+        <v>60.93091201782227</v>
       </c>
       <c r="D34" t="n">
-        <v>69.03067779541016</v>
+        <v>64.69232940673828</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>63.75262451171875</v>
+        <v>63.12038421630859</v>
       </c>
       <c r="C35" t="n">
-        <v>59.81612777709961</v>
+        <v>60.62977981567383</v>
       </c>
       <c r="D35" t="n">
-        <v>67.68911743164062</v>
+        <v>65.61099243164062</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>64.33911666870117</v>
+        <v>63.63802070617676</v>
       </c>
       <c r="C2" t="n">
-        <v>63.68890240499881</v>
+        <v>61.87930205551014</v>
       </c>
       <c r="D2" t="n">
-        <v>64.98933093240352</v>
+        <v>65.39673935684337</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>63.71351203918457</v>
+        <v>64.864994430542</v>
       </c>
       <c r="C3" t="n">
-        <v>62.2327555399299</v>
+        <v>62.15822012615995</v>
       </c>
       <c r="D3" t="n">
-        <v>65.19426853843925</v>
+        <v>67.57176873492405</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>64.13219947814942</v>
+        <v>62.71144752502441</v>
       </c>
       <c r="C4" t="n">
-        <v>63.25864021739365</v>
+        <v>61.09069723937994</v>
       </c>
       <c r="D4" t="n">
-        <v>65.00575873890517</v>
+        <v>64.33219781066889</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>64.59356422424317</v>
+        <v>61.80726051330566</v>
       </c>
       <c r="C5" t="n">
-        <v>63.13730229762622</v>
+        <v>60.63178330281787</v>
       </c>
       <c r="D5" t="n">
-        <v>66.04982615086011</v>
+        <v>62.98273772379346</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>61.33179512023926</v>
+        <v>62.71793518066406</v>
       </c>
       <c r="C6" t="n">
-        <v>58.1327970468239</v>
+        <v>60.48363070934253</v>
       </c>
       <c r="D6" t="n">
-        <v>64.5307931936546</v>
+        <v>64.95223965198561</v>
       </c>
     </row>
   </sheetData>
